--- a/Excel Workbook.xlsx
+++ b/Excel Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Hany\Desktop\Data Analysis\Projects\Excel Project for Employees Contracts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4AA3D70-4238-41DB-AC54-C191A6690B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34764CF-31B0-41FC-A575-585949297AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF955D8A-5099-4AAE-8356-4787864C641A}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3991" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3991" uniqueCount="223">
   <si>
     <t>الرقم</t>
   </si>
@@ -712,9 +712,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -2108,7 +2105,7 @@
     <tableColumn id="5" xr3:uid="{FF3B1B12-64FD-4603-9216-F813435049CB}" name="نوع العقد" dataDxfId="53" totalsRowDxfId="3"/>
     <tableColumn id="6" xr3:uid="{87E79188-9F75-4BDD-8485-720CF7FAF00F}" name="تاريخ التوقيع" totalsRowFunction="min" dataDxfId="52" totalsRowDxfId="2"/>
     <tableColumn id="7" xr3:uid="{FE92C24F-EC24-48B2-93A8-EC86990A94C7}" name="تاريخ الانتهاء" totalsRowFunction="max" dataDxfId="8" totalsRowDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{AE134B58-5535-4142-9560-4799FA69524E}" name="Column1" totalsRowFunction="average" dataDxfId="51" totalsRowDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{AE134B58-5535-4142-9560-4799FA69524E}" name="الأجور المستحقة" totalsRowFunction="average" dataDxfId="51" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2509,8 +2506,8 @@
   </sheetPr>
   <dimension ref="A1:N742"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2553,7 +2550,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>223</v>
+        <v>7</v>
       </c>
       <c r="N2" s="4"/>
     </row>
@@ -2716,7 +2713,7 @@
         <v>856365.15999999829</v>
       </c>
       <c r="L7" s="14">
-        <f>SUM(EmployeesContracts[Column1])</f>
+        <f>SUM(EmployeesContracts[الأجور المستحقة])</f>
         <v>856365.15999999829</v>
       </c>
       <c r="N7" s="4"/>
@@ -2754,7 +2751,7 @@
         <v>4369.2099999999909</v>
       </c>
       <c r="L8" s="14">
-        <f>AVERAGE(EmployeesContracts[Column1])</f>
+        <f>AVERAGE(EmployeesContracts[الأجور المستحقة])</f>
         <v>4369.2099999999909</v>
       </c>
       <c r="N8" s="4"/>
@@ -7909,7 +7906,7 @@
         <v>43272</v>
       </c>
       <c r="H199" s="8">
-        <f>SUBTOTAL(101,EmployeesContracts[Column1])</f>
+        <f>SUBTOTAL(101,EmployeesContracts[الأجور المستحقة])</f>
         <v>4369.2099999999909</v>
       </c>
       <c r="N199" s="4"/>
